--- a/zika_outliers.xlsx
+++ b/zika_outliers.xlsx
@@ -136,7 +136,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
